--- a/biology/Zoologie/Denigastrura_tetrophthalma/Denigastrura_tetrophthalma.xlsx
+++ b/biology/Zoologie/Denigastrura_tetrophthalma/Denigastrura_tetrophthalma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Denigastrura tetrophthalma, unique représentant du genre Denigastrura, est une espèce de collemboles de la famille des Hypogastruridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Denigastrura tetrophthalma, unique représentant du genre Denigastrura, est une espèce de collemboles de la famille des Hypogastruridae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre en Afrique de l'Est.
 </t>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est nommé en l'honneur de Jean Marcel Robert Denis[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est nommé en l'honneur de Jean Marcel Robert Denis.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Denis, 1928 : Sur deux Collemboles de la Somalie italienne. Le dimorphisme sexuel de Vertagopus minos sp. n. Bollettino della Societa Entomologica Italiana, vol. 60, p. 1-6.
 Stach, 1949 : The Apterygotan Fauna of Poland in Relation to the World-Fauna of this group of Insects. Families: Neogastruridae and Brachystomellidae. Polska Akademia Umiej tno ci, Acta monographica Musei Historiae Naturalis, Kraków, p. 1-341.</t>
